--- a/biology/Botanique/Rafflesia_consueloae/Rafflesia_consueloae.xlsx
+++ b/biology/Botanique/Rafflesia_consueloae/Rafflesia_consueloae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Rafflesia consueloae est une espèce de plantes à fleurs de la famille des rafflesiacées, découverte de manière fortuite en 2016[1] sur l'île de Luzon, aux Philippines, par l'équipe d'Edwino Fernando de l'université des Philippines[2]. Le nom consueloae a été donné en l'honneur de la femme d'un homme d'affaires philippin, prénommée Consuelo[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rafflesia consueloae est une espèce de plantes à fleurs de la famille des rafflesiacées, découverte de manière fortuite en 2016 sur l'île de Luzon, aux Philippines, par l'équipe d'Edwino Fernando de l'université des Philippines. Le nom consueloae a été donné en l'honneur de la femme d'un homme d'affaires philippin, prénommée Consuelo. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le diamètre de la fleur ne va pas au-delà des 10 cm environ[1]. Les lobes du périgone sont verticaux et son disque est de couleur blanc crème. C'est actuellement la plus petite des rafflesia[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le diamètre de la fleur ne va pas au-delà des 10 cm environ. Les lobes du périgone sont verticaux et son disque est de couleur blanc crème. C'est actuellement la plus petite des rafflesia.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Galindon, Ong &amp; Fernando, PhytoKeys 61: 39 (2016).</t>
         </is>
